--- a/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
   <si>
     <t>ZESTAW ZADAŃ NR 43 - CZĘŚĆ 1</t>
   </si>
@@ -61,21 +61,21 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Anna Kubiak</t>
-  </si>
-  <si>
-    <t>Natalia Wójcik</t>
-  </si>
-  <si>
-    <t>Aleksander Dąbrowski</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
+    <t>Jakub Lewandowski</t>
+  </si>
+  <si>
+    <t>Emilia Zawadzka</t>
+  </si>
+  <si>
+    <t>Julia Rogalska</t>
   </si>
   <si>
     <t>Jakub Nowak</t>
   </si>
   <si>
+    <t>Szymon Wojciechowski</t>
+  </si>
+  <si>
     <t>ŚREDNIA</t>
   </si>
   <si>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>1,80</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>4,40</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,70</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,80</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>22,60</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>3,70</t>
-  </si>
-  <si>
-    <t>Ołówek HB</t>
-  </si>
-  <si>
-    <t>0,90</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>4,70</t>
+    <t>6,80</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>12,32</t>
+    <t>20,51</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>6,82</t>
+    <t>21,13</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>4,04</t>
+    <t>11,82</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>4,00</t>
+    <t>6,42</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>7,08</t>
+    <t>14,74</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>25,72</t>
-  </si>
-  <si>
-    <t>29,39</t>
-  </si>
-  <si>
-    <t>28,38</t>
-  </si>
-  <si>
-    <t>22,49</t>
-  </si>
-  <si>
-    <t>22,82</t>
+    <t>10,36</t>
+  </si>
+  <si>
+    <t>5,47</t>
+  </si>
+  <si>
+    <t>5,25</t>
+  </si>
+  <si>
+    <t>10,68</t>
+  </si>
+  <si>
+    <t>7,43</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>15,89</t>
-  </si>
-  <si>
-    <t>12,24</t>
-  </si>
-  <si>
-    <t>3,72</t>
-  </si>
-  <si>
-    <t>23,18</t>
-  </si>
-  <si>
-    <t>27,59</t>
+    <t>27,33</t>
+  </si>
+  <si>
+    <t>10,39</t>
+  </si>
+  <si>
+    <t>11,99</t>
+  </si>
+  <si>
+    <t>27,34</t>
+  </si>
+  <si>
+    <t>10,44</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,31 +340,49 @@
     <t>Czy pasek?</t>
   </si>
   <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
+  </si>
+  <si>
+    <t>Szymański</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Lis</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Maciejewska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Dąbrowski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Jankowski</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
+    <t>Krawczyk</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -400,121 +418,112 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Kacper Piotrowski</t>
-  </si>
-  <si>
-    <t>23.04.1993</t>
-  </si>
-  <si>
-    <t>13 948,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Górska</t>
-  </si>
-  <si>
-    <t>01.01.2002</t>
-  </si>
-  <si>
-    <t>12 474,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wójcik</t>
-  </si>
-  <si>
-    <t>04.05.1983</t>
-  </si>
-  <si>
-    <t>3 867,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Maciejewska</t>
-  </si>
-  <si>
-    <t>22.04.1992</t>
-  </si>
-  <si>
-    <t>4 886,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Wójcik</t>
-  </si>
-  <si>
-    <t>02.12.1992</t>
-  </si>
-  <si>
-    <t>3 831,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>02.12.1982</t>
-  </si>
-  <si>
-    <t>6 196,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Szymański</t>
-  </si>
-  <si>
-    <t>09.05.2002</t>
-  </si>
-  <si>
-    <t>4 306,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wojciechowski</t>
-  </si>
-  <si>
-    <t>21.02.1984</t>
-  </si>
-  <si>
-    <t>9 463,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Jaworska</t>
-  </si>
-  <si>
-    <t>26.06.2005</t>
-  </si>
-  <si>
-    <t>10 985,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Maciejewska</t>
-  </si>
-  <si>
-    <t>04.11.1978</t>
-  </si>
-  <si>
-    <t>2 931,00 zł</t>
-  </si>
-  <si>
-    <t>Emilia Bednarska</t>
-  </si>
-  <si>
-    <t>02.11.1981</t>
-  </si>
-  <si>
-    <t>5 877,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Kozłowski</t>
-  </si>
-  <si>
-    <t>15.11.1987</t>
-  </si>
-  <si>
-    <t>13 816,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>27.08.1998</t>
-  </si>
-  <si>
-    <t>8 049,00 zł</t>
+    <t>Zuzanna Rogalska</t>
+  </si>
+  <si>
+    <t>06.02.1984</t>
+  </si>
+  <si>
+    <t>8 458,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Sadowska</t>
+  </si>
+  <si>
+    <t>25.12.1977</t>
+  </si>
+  <si>
+    <t>13 861,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kowalski</t>
+  </si>
+  <si>
+    <t>06.09.2002</t>
+  </si>
+  <si>
+    <t>6 670,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>03.01.1975</t>
+  </si>
+  <si>
+    <t>8 943,00 zł</t>
+  </si>
+  <si>
+    <t>Emilia Sadowska</t>
+  </si>
+  <si>
+    <t>17.12.1984</t>
+  </si>
+  <si>
+    <t>10 608,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Mazur</t>
+  </si>
+  <si>
+    <t>28.05.1980</t>
+  </si>
+  <si>
+    <t>12 513,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Kaczmarek</t>
+  </si>
+  <si>
+    <t>09.10.1978</t>
+  </si>
+  <si>
+    <t>7 501,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Zieliński</t>
+  </si>
+  <si>
+    <t>28.01.1994</t>
+  </si>
+  <si>
+    <t>6 044,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Woźniak</t>
+  </si>
+  <si>
+    <t>04.06.1992</t>
+  </si>
+  <si>
+    <t>3 451,00 zł</t>
+  </si>
+  <si>
+    <t>Hanna Rogalska</t>
+  </si>
+  <si>
+    <t>20.03.1978</t>
+  </si>
+  <si>
+    <t>5 856,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Górska</t>
+  </si>
+  <si>
+    <t>21.11.2005</t>
+  </si>
+  <si>
+    <t>10 974,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Wilk</t>
+  </si>
+  <si>
+    <t>04.06.1998</t>
+  </si>
+  <si>
+    <t>6 014,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -586,316 +595,292 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>1 445,00 zł</t>
+  </si>
+  <si>
+    <t>1 604,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 323,00 zł</t>
-  </si>
-  <si>
-    <t>1 826,00 zł</t>
+    <t>643,00 zł</t>
+  </si>
+  <si>
+    <t>836,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>1 180,00 zł</t>
+  </si>
+  <si>
+    <t>1 522,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>789,00 zł</t>
+  </si>
+  <si>
+    <t>1 081,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>996,00 zł</t>
+  </si>
+  <si>
+    <t>1 365,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>1 390,00 zł</t>
+  </si>
+  <si>
+    <t>1 807,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>657,00 zł</t>
+  </si>
+  <si>
+    <t>880,00 zł</t>
+  </si>
+  <si>
+    <t>Tablet 10"</t>
+  </si>
+  <si>
+    <t>1 239,00 zł</t>
+  </si>
+  <si>
+    <t>1 648,00 zł</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>729,00 zł</t>
+  </si>
+  <si>
+    <t>875,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 289,00 zł</t>
+  </si>
+  <si>
+    <t>1 521,00 zł</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>928,00 zł</t>
+  </si>
+  <si>
+    <t>1 281,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>626,00 zł</t>
+  </si>
+  <si>
+    <t>858,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>1 084,00 zł</t>
+  </si>
+  <si>
+    <t>1 236,00 zł</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>701,00 zł</t>
+  </si>
+  <si>
+    <t>918,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>849,00 zł</t>
+  </si>
+  <si>
+    <t>1 095,00 zł</t>
+  </si>
+  <si>
+    <t>1 147,00 zł</t>
+  </si>
+  <si>
+    <t>1 411,00 zł</t>
+  </si>
+  <si>
+    <t>1 432,00 zł</t>
+  </si>
+  <si>
+    <t>1 733,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>1 304,00 zł</t>
+  </si>
+  <si>
+    <t>1 708,00 zł</t>
+  </si>
+  <si>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>1 640,00 zł</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>1 296,00 zł</t>
+  </si>
+  <si>
+    <t>1 711,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>1 228,00 zł</t>
+  </si>
+  <si>
+    <t>1 437,00 zł</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>951,00 zł</t>
   </si>
   <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>927,00 zł</t>
-  </si>
-  <si>
-    <t>1 103,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>851,00 zł</t>
-  </si>
-  <si>
-    <t>1 157,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>691,00 zł</t>
-  </si>
-  <si>
-    <t>919,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 280,00 zł</t>
-  </si>
-  <si>
-    <t>1 690,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>844,00 zł</t>
-  </si>
-  <si>
-    <t>1 156,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 141,00 zł</t>
-  </si>
-  <si>
-    <t>1 381,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>1 126,00 zł</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>1 391,00 zł</t>
-  </si>
-  <si>
-    <t>1 822,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>884,00 zł</t>
-  </si>
-  <si>
-    <t>1 176,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>1 201,00 zł</t>
-  </si>
-  <si>
-    <t>1 609,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 064,00 zł</t>
-  </si>
-  <si>
-    <t>1 436,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>1 310,00 zł</t>
-  </si>
-  <si>
-    <t>1 493,00 zł</t>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>651,00 zł</t>
+  </si>
+  <si>
+    <t>892,00 zł</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 329,00 zł</t>
+  </si>
+  <si>
+    <t>1 675,00 zł</t>
+  </si>
+  <si>
+    <t>1 460,00 zł</t>
   </si>
   <si>
     <t>Anna Nowak</t>
   </si>
   <si>
-    <t>Powerbank 20000mAh</t>
-  </si>
-  <si>
-    <t>1 490,00 zł</t>
-  </si>
-  <si>
-    <t>1 669,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 447,00 zł</t>
-  </si>
-  <si>
-    <t>1 982,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>1 406,00 zł</t>
-  </si>
-  <si>
-    <t>1 673,00 zł</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 247,00 zł</t>
-  </si>
-  <si>
-    <t>1 696,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 059,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>1 318,00 zł</t>
-  </si>
-  <si>
-    <t>1 489,00 zł</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>1 169,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
-  </si>
-  <si>
-    <t>1 562,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>1 124,00 zł</t>
-  </si>
-  <si>
-    <t>1 360,00 zł</t>
-  </si>
-  <si>
-    <t>1 286,00 zł</t>
-  </si>
-  <si>
-    <t>1 736,00 zł</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>580,00 zł</t>
-  </si>
-  <si>
-    <t>795,00 zł</t>
-  </si>
-  <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>1 112,00 zł</t>
-  </si>
-  <si>
-    <t>1 069,00 zł</t>
-  </si>
-  <si>
-    <t>1 336,00 zł</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
-    <t>1 526,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 947,00 zł</t>
+    <t>1 229,00 zł</t>
+  </si>
+  <si>
+    <t>1 721,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1452,19 +1437,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="3">
-        <v>6</v>
-      </c>
       <c r="F17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1476,16 +1461,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1494,19 +1479,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
-        <v>5</v>
-      </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1515,19 +1500,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1536,19 +1521,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1563,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="3">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1578,19 +1563,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3">
         <v>2</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1599,19 +1584,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1620,19 +1605,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2</v>
+      </c>
+      <c r="F25" s="3">
         <v>3</v>
-      </c>
-      <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1641,19 +1626,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="C26" s="3">
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>6</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3">
-        <v>4</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1665,16 +1650,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1683,19 +1668,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1817,7 +1802,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1832,7 +1817,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1877,7 +1862,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1892,7 +1877,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2009,7 +1994,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2021,7 +2006,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2033,7 +2018,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2045,7 +2030,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2057,7 +2042,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2105,7 +2090,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2117,7 +2102,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2129,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2141,7 +2126,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2153,7 +2138,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2201,7 +2186,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2213,7 +2198,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2225,7 +2210,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2237,7 +2222,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2249,7 +2234,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2283,10 +2268,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A21" sqref="A21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2392,22 +2377,22 @@
         <v>107</v>
       </c>
       <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>5</v>
@@ -2418,22 +2403,22 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -2442,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2450,31 +2435,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
         <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>5</v>
       </c>
       <c r="I14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2482,31 +2467,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="J15" s="3">
         <v>2</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2514,28 +2499,28 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3">
-        <v>6</v>
       </c>
       <c r="H16" s="3">
         <v>5</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>3</v>
@@ -2544,42 +2529,138 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2592,10 +2673,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A27" sqref="A27:B29"/>
+      <selection activeCell="A26" sqref="A26:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2607,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2617,210 +2698,199 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="13" t="s">
-        <v>165</v>
+      <c r="A26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2838,10 +2908,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A45" sqref="A45:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2857,7 +2927,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2867,75 +2937,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2943,22 +3013,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2966,22 +3036,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2989,22 +3059,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3012,22 +3082,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3035,22 +3105,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3058,22 +3128,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3081,22 +3151,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3104,22 +3174,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3127,22 +3197,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3150,22 +3220,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3173,22 +3243,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3196,22 +3266,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3219,22 +3289,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3242,22 +3312,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3265,22 +3335,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3288,22 +3358,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3311,22 +3381,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3334,22 +3404,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3357,22 +3427,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3380,22 +3450,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3403,10 +3473,10 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>271</v>
@@ -3415,7 +3485,7 @@
         <v>272</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>273</v>
@@ -3426,22 +3496,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>275</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3449,22 +3519,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3472,22 +3542,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3495,22 +3565,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3518,136 +3588,67 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="B45" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
         <v>288</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="B46" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>289</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>165</v>
+      <c r="B47" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>295</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>296</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>ZESTAW ZADAŃ NR 43 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 43 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Długopis niebieski</t>
   </si>
   <si>
-    <t>1,80</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>2,60</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,40</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>14,00</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>6,80</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>20,51</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>21,13</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,82</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>6,42</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>14,74</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>10,36</t>
-  </si>
-  <si>
-    <t>5,47</t>
-  </si>
-  <si>
-    <t>5,25</t>
-  </si>
-  <si>
-    <t>10,68</t>
-  </si>
-  <si>
-    <t>7,43</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>27,33</t>
-  </si>
-  <si>
-    <t>10,39</t>
-  </si>
-  <si>
-    <t>11,99</t>
-  </si>
-  <si>
-    <t>27,34</t>
-  </si>
-  <si>
-    <t>10,44</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -424,108 +346,72 @@
     <t>06.02.1984</t>
   </si>
   <si>
-    <t>8 458,00 zł</t>
-  </si>
-  <si>
     <t>Maja Sadowska</t>
   </si>
   <si>
     <t>25.12.1977</t>
   </si>
   <si>
-    <t>13 861,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kowalski</t>
   </si>
   <si>
     <t>06.09.2002</t>
   </si>
   <si>
-    <t>6 670,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>03.01.1975</t>
   </si>
   <si>
-    <t>8 943,00 zł</t>
-  </si>
-  <si>
     <t>Emilia Sadowska</t>
   </si>
   <si>
     <t>17.12.1984</t>
   </si>
   <si>
-    <t>10 608,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Mazur</t>
   </si>
   <si>
     <t>28.05.1980</t>
   </si>
   <si>
-    <t>12 513,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Kaczmarek</t>
   </si>
   <si>
     <t>09.10.1978</t>
   </si>
   <si>
-    <t>7 501,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Zieliński</t>
   </si>
   <si>
     <t>28.01.1994</t>
   </si>
   <si>
-    <t>6 044,00 zł</t>
-  </si>
-  <si>
     <t>Filip Woźniak</t>
   </si>
   <si>
     <t>04.06.1992</t>
   </si>
   <si>
-    <t>3 451,00 zł</t>
-  </si>
-  <si>
     <t>Hanna Rogalska</t>
   </si>
   <si>
     <t>20.03.1978</t>
   </si>
   <si>
-    <t>5 856,00 zł</t>
-  </si>
-  <si>
     <t>Maja Górska</t>
   </si>
   <si>
     <t>21.11.2005</t>
   </si>
   <si>
-    <t>10 974,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Wilk</t>
   </si>
   <si>
     <t>04.06.1998</t>
   </si>
   <si>
-    <t>6 014,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -538,9 +424,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -601,12 +484,6 @@
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>1 445,00 zł</t>
-  </si>
-  <si>
-    <t>1 604,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -619,12 +496,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>643,00 zł</t>
-  </si>
-  <si>
-    <t>836,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -634,12 +505,6 @@
     <t>marzec</t>
   </si>
   <si>
-    <t>1 180,00 zł</t>
-  </si>
-  <si>
-    <t>1 522,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -649,12 +514,6 @@
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>789,00 zł</t>
-  </si>
-  <si>
-    <t>1 081,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
@@ -664,12 +523,6 @@
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>996,00 zł</t>
-  </si>
-  <si>
-    <t>1 365,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
@@ -682,69 +535,33 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>1 390,00 zł</t>
-  </si>
-  <si>
-    <t>1 807,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>657,00 zł</t>
-  </si>
-  <si>
-    <t>880,00 zł</t>
-  </si>
-  <si>
     <t>Tablet 10"</t>
   </si>
   <si>
-    <t>1 239,00 zł</t>
-  </si>
-  <si>
-    <t>1 648,00 zł</t>
-  </si>
-  <si>
     <t>podlaskie</t>
   </si>
   <si>
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>875,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>1 521,00 zł</t>
-  </si>
-  <si>
     <t>luty</t>
   </si>
   <si>
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>928,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -754,33 +571,15 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>626,00 zł</t>
-  </si>
-  <si>
-    <t>858,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>1 084,00 zł</t>
-  </si>
-  <si>
-    <t>1 236,00 zł</t>
-  </si>
-  <si>
     <t>mazowieckie</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>701,00 zł</t>
-  </si>
-  <si>
-    <t>918,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -790,97 +589,31 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>849,00 zł</t>
-  </si>
-  <si>
-    <t>1 095,00 zł</t>
-  </si>
-  <si>
-    <t>1 147,00 zł</t>
-  </si>
-  <si>
-    <t>1 411,00 zł</t>
-  </si>
-  <si>
-    <t>1 432,00 zł</t>
-  </si>
-  <si>
-    <t>1 733,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>1 304,00 zł</t>
-  </si>
-  <si>
-    <t>1 708,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 640,00 zł</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 296,00 zł</t>
-  </si>
-  <si>
-    <t>1 711,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 437,00 zł</t>
-  </si>
-  <si>
     <t>opolskie</t>
   </si>
   <si>
     <t>Laptop Gaming i7</t>
   </si>
   <si>
-    <t>951,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>651,00 zł</t>
-  </si>
-  <si>
-    <t>892,00 zł</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 675,00 zł</t>
-  </si>
-  <si>
-    <t>1 460,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>1 229,00 zł</t>
-  </si>
-  <si>
-    <t>1 721,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -902,7 +635,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -959,14 +694,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,8 +712,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1009,30 +744,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,7 +1071,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1410,25 +1146,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1451,7 +1187,7 @@
       <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1472,7 +1208,7 @@
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1493,7 +1229,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1514,7 +1250,7 @@
       <c r="F20" s="3">
         <v>2</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1535,7 +1271,7 @@
       <c r="F21" s="3">
         <v>3</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1556,7 +1292,7 @@
       <c r="F22" s="3">
         <v>2</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1577,7 +1313,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1598,7 +1334,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1619,7 +1355,7 @@
       <c r="F25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1640,7 +1376,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1661,7 +1397,7 @@
       <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1682,27 +1418,17 @@
       <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1736,7 +1462,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1756,7 +1482,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1766,29 +1492,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1796,99 +1522,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.8</v>
       </c>
       <c r="D13" s="3">
         <v>10</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.6</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.4</v>
       </c>
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6.8</v>
       </c>
       <c r="D18" s="3">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1921,7 +1647,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1946,113 +1672,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>20.51</v>
       </c>
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>21.13</v>
       </c>
       <c r="C16" s="3">
         <v>24</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.82</v>
       </c>
       <c r="C17" s="3">
         <v>14</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>6.42</v>
       </c>
       <c r="C18" s="3">
         <v>36</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>14.74</v>
       </c>
       <c r="C19" s="3">
         <v>41</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2061,94 +1787,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>10.36</v>
       </c>
       <c r="C24" s="3">
         <v>50</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>5.47</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>5.25</v>
       </c>
       <c r="C26" s="3">
         <v>15</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>10.68</v>
       </c>
       <c r="C27" s="3">
         <v>27</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>7.43</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2157,98 +1883,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>27.33</v>
       </c>
       <c r="C33" s="3">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>10.39</v>
       </c>
       <c r="C34" s="3">
         <v>26</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>11.99</v>
       </c>
       <c r="C35" s="3">
         <v>13</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>27.34</v>
       </c>
       <c r="C36" s="3">
         <v>30</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>10.44</v>
       </c>
       <c r="C37" s="3">
         <v>27</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2271,7 +1997,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A21" sqref="A21:L21"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2291,90 +2017,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2397,16 +2123,16 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>2</v>
@@ -2429,16 +2155,16 @@
       <c r="J13" s="3">
         <v>6</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
@@ -2461,16 +2187,16 @@
       <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2493,16 +2219,16 @@
       <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D16" s="3">
         <v>2</v>
@@ -2525,16 +2251,16 @@
       <c r="J16" s="3">
         <v>3</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2557,16 +2283,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="D18" s="3">
         <v>2</v>
@@ -2589,16 +2315,16 @@
       <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>4</v>
@@ -2621,40 +2347,40 @@
       <c r="J19" s="3">
         <v>5</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2687,211 +2413,205 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>123</v>
+      <c r="A1" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
+      <c r="A10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8458</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
+        <v>109</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13861</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6670</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="C14" s="7">
+        <v>8943</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>115</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10608</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12513</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7501</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6044</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3451</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="7">
+        <v>5856</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10974</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6014</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>168</v>
+      <c r="A25" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2926,86 +2646,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>173</v>
+      <c r="A1" s="15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>190</v>
+      <c r="A15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3013,22 +2733,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1445</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1604</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3036,22 +2756,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
+      </c>
+      <c r="D17" s="7">
+        <v>643</v>
+      </c>
+      <c r="E17" s="7">
+        <v>836</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3059,22 +2779,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>205</v>
+        <v>157</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1180</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1522</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3082,22 +2802,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
+      </c>
+      <c r="D19" s="7">
+        <v>789</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1081</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3105,22 +2825,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
+      </c>
+      <c r="D20" s="7">
+        <v>996</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1365</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3128,22 +2848,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1390</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1807</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3151,22 +2871,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
+      </c>
+      <c r="D22" s="7">
+        <v>657</v>
+      </c>
+      <c r="E22" s="7">
+        <v>880</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3174,22 +2894,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>228</v>
+        <v>173</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1239</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1648</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3197,22 +2917,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>729</v>
+      </c>
+      <c r="E24" s="7">
+        <v>875</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3220,22 +2940,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1289</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1521</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3243,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>240</v>
+        <v>179</v>
+      </c>
+      <c r="D26" s="7">
+        <v>928</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1281</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3266,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>245</v>
+        <v>182</v>
+      </c>
+      <c r="D27" s="7">
+        <v>626</v>
+      </c>
+      <c r="E27" s="7">
+        <v>858</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3289,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>248</v>
+        <v>179</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1084</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1236</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3312,22 +3032,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>252</v>
+        <v>185</v>
+      </c>
+      <c r="D29" s="7">
+        <v>701</v>
+      </c>
+      <c r="E29" s="7">
+        <v>918</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3335,22 +3055,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>254</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="D30" s="7">
+        <v>849</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1095</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3358,22 +3078,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>259</v>
+        <v>188</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1147</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1411</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3381,22 +3101,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>261</v>
+        <v>153</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1432</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1733</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3404,22 +3124,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>264</v>
+        <v>157</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1304</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1708</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3427,22 +3147,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>266</v>
+        <v>172</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1640</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3450,22 +3170,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>157</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1711</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3473,22 +3193,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>272</v>
+        <v>175</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1228</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1437</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3496,22 +3216,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>275</v>
+        <v>193</v>
+      </c>
+      <c r="D37" s="7">
+        <v>849</v>
+      </c>
+      <c r="E37" s="7">
+        <v>951</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3519,22 +3239,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>279</v>
+        <v>175</v>
+      </c>
+      <c r="D38" s="7">
+        <v>651</v>
+      </c>
+      <c r="E38" s="7">
+        <v>892</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3542,22 +3262,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>282</v>
+        <v>196</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1329</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1675</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3565,22 +3285,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>283</v>
+        <v>173</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1281</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1460</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3588,68 +3308,58 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>182</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1229</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1721</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>249</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
-        <v>168</v>
+      <c r="A44" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>289</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>290</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>291</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>172</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_043.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>ZESTAW ZADAŃ NR 43 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jakub Lewandowski</t>
-  </si>
-  <si>
-    <t>Emilia Zawadzka</t>
-  </si>
-  <si>
-    <t>Julia Rogalska</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>Szymon Wojciechowski</t>
+    <t>Kacper Wiśniewski</t>
+  </si>
+  <si>
+    <t>Emilia Rogalska</t>
+  </si>
+  <si>
+    <t>Hanna Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Borkowska</t>
+  </si>
+  <si>
+    <t>Aleksander Dąbrowski</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 43 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Długopis niebieski</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Pędzelek</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
   </si>
   <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,52 +266,49 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
   </si>
   <si>
     <t>Kacper</t>
   </si>
   <si>
-    <t>Kozłowski</t>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Oliwia</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Kaźmierczak</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Szymański</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Lis</t>
-  </si>
-  <si>
-    <t>Emilia</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
     <t>Maciejewska</t>
   </si>
   <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Sikorska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Krawczyk</t>
+    <t>Woźniak</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -340,76 +344,40 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
+    <t>Anna Sadowska</t>
+  </si>
+  <si>
+    <t>Kacper Dąbrowski</t>
+  </si>
+  <si>
+    <t>Kacper Kamiński</t>
+  </si>
+  <si>
+    <t>Amelia Rogalska</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>Lena Maciejewska</t>
+  </si>
+  <si>
+    <t>Aleksander Szymański</t>
+  </si>
+  <si>
+    <t>Hanna Malinowska</t>
+  </si>
+  <si>
+    <t>Emilia Maciejewska</t>
+  </si>
+  <si>
+    <t>Szymon Wiśniewski</t>
+  </si>
+  <si>
     <t>Zuzanna Rogalska</t>
   </si>
   <si>
-    <t>06.02.1984</t>
-  </si>
-  <si>
-    <t>Maja Sadowska</t>
-  </si>
-  <si>
-    <t>25.12.1977</t>
-  </si>
-  <si>
-    <t>Wojciech Kowalski</t>
-  </si>
-  <si>
-    <t>06.09.2002</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>03.01.1975</t>
-  </si>
-  <si>
-    <t>Emilia Sadowska</t>
-  </si>
-  <si>
-    <t>17.12.1984</t>
-  </si>
-  <si>
-    <t>Kacper Mazur</t>
-  </si>
-  <si>
-    <t>28.05.1980</t>
-  </si>
-  <si>
-    <t>Jakub Kaczmarek</t>
-  </si>
-  <si>
-    <t>09.10.1978</t>
-  </si>
-  <si>
-    <t>Antoni Zieliński</t>
-  </si>
-  <si>
-    <t>28.01.1994</t>
-  </si>
-  <si>
-    <t>Filip Woźniak</t>
-  </si>
-  <si>
-    <t>04.06.1992</t>
-  </si>
-  <si>
-    <t>Hanna Rogalska</t>
-  </si>
-  <si>
-    <t>20.03.1978</t>
-  </si>
-  <si>
-    <t>Maja Górska</t>
-  </si>
-  <si>
-    <t>21.11.2005</t>
-  </si>
-  <si>
-    <t>Oliwia Wilk</t>
-  </si>
-  <si>
-    <t>04.06.1998</t>
+    <t>Szymon Kowalczyk</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -424,7 +392,58 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Anna Król</t>
+  </si>
+  <si>
+    <t>Jakub Kowalski</t>
+  </si>
+  <si>
+    <t>Antoni Szymański</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalczyk</t>
+  </si>
+  <si>
+    <t>Wojciech Kaczmarek</t>
+  </si>
+  <si>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>Zuzanna Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Zieliński</t>
+  </si>
+  <si>
+    <t>Lena Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon Jankowski</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -478,142 +497,151 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
     <t>maj</t>
   </si>
   <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>Powerbank 20000mAh</t>
   </si>
   <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
   </si>
   <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>Agnieszka Wojciechowska</t>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>marzec</t>
+    <t>Paweł Kwiatkowski</t>
   </si>
   <si>
     <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -685,7 +713,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,12 +736,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -755,13 +777,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1068,7 +1089,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1173,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
       <c r="F17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1194,19 +1215,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
         <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>6</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1215,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
         <v>6</v>
@@ -1224,10 +1245,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1245,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1260,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1278,16 +1299,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
+      <c r="E22" s="3">
         <v>3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -1299,19 +1320,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="3">
         <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1323,16 +1344,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" s="3">
         <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1341,19 +1362,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="3">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1362,19 +1383,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1383,19 +1404,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="3">
         <v>6</v>
       </c>
-      <c r="D27" s="3">
+      <c r="E27" s="3">
         <v>5</v>
       </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1404,19 +1425,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
         <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1429,6 +1450,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1462,7 +1489,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1482,7 +1509,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1492,29 +1519,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1522,99 +1549,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.8</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.5</v>
       </c>
       <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.4</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5.2</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>23.2</v>
       </c>
       <c r="D16" s="3">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.3</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6.8</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3</v>
       </c>
       <c r="D18" s="3">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1631,10 +1658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1647,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1672,27 +1699,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1700,85 +1727,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>20.51</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>9.44</v>
       </c>
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>21.13</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3.06</v>
       </c>
       <c r="C16" s="3">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.82</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>14.54</v>
       </c>
       <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>6.42</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>19.1</v>
       </c>
       <c r="C18" s="3">
-        <v>36</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>14.74</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>19.39</v>
       </c>
       <c r="C19" s="3">
-        <v>41</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1787,8 +1814,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1796,85 +1823,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>10.36</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>26.93</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>5.47</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>27.28</v>
       </c>
       <c r="C25" s="3">
-        <v>6</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>5.25</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>4.91</v>
       </c>
       <c r="C26" s="3">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>10.68</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>14.36</v>
       </c>
       <c r="C27" s="3">
-        <v>27</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>34</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>7.43</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>6.71</v>
       </c>
       <c r="C28" s="3">
-        <v>12</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1883,8 +1910,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1892,89 +1919,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>27.33</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>23.32</v>
       </c>
       <c r="C33" s="3">
-        <v>36</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>10.39</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>30.47</v>
       </c>
       <c r="C34" s="3">
-        <v>26</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>11.99</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>20.66</v>
       </c>
       <c r="C35" s="3">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>27.34</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>29.7</v>
       </c>
       <c r="C36" s="3">
-        <v>30</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>10.44</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>8.24</v>
       </c>
       <c r="C37" s="3">
-        <v>27</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2017,111 +2052,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
         <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
       </c>
       <c r="H12" s="3">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2129,28 +2164,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J13" s="3">
         <v>6</v>
@@ -2161,31 +2196,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
         <v>2</v>
       </c>
       <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
       <c r="H14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2193,31 +2228,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
       <c r="G15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2225,31 +2260,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
+        <v>4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
         <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2257,31 +2292,31 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>4</v>
       </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
@@ -2289,16 +2324,16 @@
     <row r="18" spans="1:12">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
@@ -2307,13 +2342,13 @@
         <v>4</v>
       </c>
       <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
@@ -2321,38 +2356,38 @@
     <row r="19" spans="1:12">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="3">
-        <v>5</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6</v>
-      </c>
-      <c r="H19" s="3">
-        <v>5</v>
-      </c>
       <c r="I19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2368,7 +2403,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2399,10 +2434,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A26" sqref="A26:B28"/>
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2413,205 +2448,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>97</v>
+      <c r="A1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="7">
-        <v>8458</v>
+      <c r="B11" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5751</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="7">
-        <v>13861</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1981</v>
+      </c>
+      <c r="C12" s="8">
+        <v>14526</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6670</v>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C13" s="8">
+        <v>11671</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="7">
-        <v>8943</v>
+        <v>109</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2803</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10608</v>
+        <v>110</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6841</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12513</v>
+        <v>111</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="7">
-        <v>7501</v>
+        <v>112</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C17" s="8">
+        <v>13074</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="7">
-        <v>6044</v>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C18" s="8">
+        <v>9986</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3451</v>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11453</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="7">
-        <v>5856</v>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9618</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10974</v>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10769</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="7">
-        <v>6014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="17" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12862</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B26" s="2"/>
+      <c r="A26" s="16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2628,10 +2674,194 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A45" sqref="A45:B49"/>
+      <selection activeCell="A10" sqref="A10:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="3">
+        <v>164</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="3">
+        <v>107</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="3">
+        <v>174</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="3">
+        <v>159</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="3">
+        <v>109</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="3">
+        <v>120</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3">
+        <v>147</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="3">
+        <v>128</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>158</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="3">
+        <v>94</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="3">
+        <v>162</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="3">
+        <v>107</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="3">
+        <v>178</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2646,86 +2876,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>134</v>
+      <c r="A1" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2733,22 +2963,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1445</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1604</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="8">
+        <v>917</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1045</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2756,22 +2986,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="7">
-        <v>643</v>
-      </c>
-      <c r="E17" s="7">
-        <v>836</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="8">
+        <v>842</v>
+      </c>
+      <c r="E17" s="8">
+        <v>994</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2779,22 +3009,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1180</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1522</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1292</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1641</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2802,22 +3032,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D19" s="7">
-        <v>789</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1081</v>
+      <c r="D19" s="8">
+        <v>1166</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1388</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2825,22 +3055,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="7">
-        <v>996</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1365</v>
+        <v>173</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1477</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1669</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2848,22 +3078,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1390</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1807</v>
+        <v>163</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1325</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1828</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2871,22 +3101,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="7">
-        <v>657</v>
-      </c>
-      <c r="E22" s="7">
-        <v>880</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1167</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1470</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2894,22 +3124,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1239</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1648</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="8">
+        <v>636</v>
+      </c>
+      <c r="E23" s="8">
+        <v>744</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2917,22 +3147,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="7">
-        <v>729</v>
-      </c>
-      <c r="E24" s="7">
-        <v>875</v>
+        <v>185</v>
+      </c>
+      <c r="D24" s="8">
+        <v>580</v>
+      </c>
+      <c r="E24" s="8">
+        <v>719</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2940,22 +3170,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1289</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1521</v>
+        <v>187</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1265</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1758</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2963,22 +3193,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="7">
-        <v>928</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1281</v>
+        <v>190</v>
+      </c>
+      <c r="D26" s="8">
+        <v>830</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1021</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2986,19 +3216,19 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="7">
-        <v>626</v>
-      </c>
-      <c r="E27" s="7">
-        <v>858</v>
+        <v>193</v>
+      </c>
+      <c r="D27" s="8">
+        <v>634</v>
+      </c>
+      <c r="E27" s="8">
+        <v>786</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>165</v>
@@ -3009,22 +3239,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1084</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1236</v>
+        <v>194</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1388</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1902</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3032,22 +3262,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="7">
-        <v>701</v>
-      </c>
-      <c r="E29" s="7">
-        <v>918</v>
+        <v>196</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1062</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1274</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3055,22 +3285,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="7">
-        <v>849</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1095</v>
+        <v>198</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1429</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1615</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3078,22 +3308,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1147</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1411</v>
+        <v>199</v>
+      </c>
+      <c r="D31" s="8">
+        <v>508</v>
+      </c>
+      <c r="E31" s="8">
+        <v>671</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3101,22 +3331,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1432</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1733</v>
+        <v>200</v>
+      </c>
+      <c r="D32" s="8">
+        <v>782</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1009</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3124,22 +3354,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1304</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1708</v>
+        <v>201</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1301</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1821</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3147,22 +3377,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1344</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1640</v>
+        <v>201</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1347</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1751</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3170,22 +3400,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="8">
+        <v>589</v>
+      </c>
+      <c r="E35" s="8">
+        <v>789</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1296</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1711</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3193,22 +3423,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1228</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1437</v>
+        <v>203</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1082</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1266</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3216,22 +3446,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="7">
-        <v>849</v>
-      </c>
-      <c r="E37" s="7">
-        <v>951</v>
+      <c r="D37" s="8">
+        <v>1050</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1166</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3239,22 +3469,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1014</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1420</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="D38" s="7">
-        <v>651</v>
-      </c>
-      <c r="E38" s="7">
-        <v>892</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3262,22 +3492,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1329</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1675</v>
+        <v>190</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1230</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1402</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3285,81 +3515,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1281</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1460</v>
+        <v>201</v>
+      </c>
+      <c r="D40" s="8">
+        <v>748</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1032</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1229</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1721</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="3" t="s">
         <v>184</v>
       </c>
     </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>130</v>
-      </c>
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B45" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>201</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
